--- a/events_summary_V03.xlsx
+++ b/events_summary_V03.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Solar_Orbiter_In_Situ_Type_III\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{912662A2-3BFD-42AC-B21D-E7E324A34289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E49992-8578-4C0E-84EA-866AF493E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5235" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events_summary_V03" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>r</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>freq</t>
-  </si>
-  <si>
-    <t>legacyfreq</t>
   </si>
   <si>
     <t>date</t>
@@ -43,9 +40,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -536,10 +533,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,1293 +894,1067 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:H75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="1">
-        <v>61</v>
-      </c>
-      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>44032.840277777781</v>
       </c>
-      <c r="F2" s="5">
+      <c r="B2" s="5">
         <v>61.412726562499998</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.674592264194946</v>
       </c>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>44033.125</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.67637054535845997</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>44033.263888888891</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.67732813510657397</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>44033.295138888891</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.677601735804929</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>44126.520833333336</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.98394581252802804</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>44152.076388888891</v>
       </c>
-      <c r="F7" s="5">
+      <c r="B7" s="5">
         <v>31.722296875000001</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.92852353306675595</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>44152.770833333336</v>
       </c>
-      <c r="F8" s="5">
+      <c r="B8" s="5">
         <v>17.109380859375001</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.92611405552005199</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>44153.15625</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.92481966808967897</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>44153.458333333336</v>
       </c>
-      <c r="F10" s="5">
+      <c r="B10" s="5">
         <v>15.353181640624999</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.92373103182863703</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>44153.569444444445</v>
       </c>
-      <c r="F11" s="5">
+      <c r="B11" s="5">
         <v>15.353181640624999</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.92336623060827205</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>44174.208333333336</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.83190328081463305</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>44175.305555555555</v>
       </c>
-      <c r="F13" s="5">
+      <c r="B13" s="5">
         <v>21.247419921875</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.82599305407077195</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>44175.847222222219</v>
       </c>
-      <c r="F14" s="5">
+      <c r="B14" s="5">
         <v>12.09816015625</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.82305894712526495</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>44175.986111111109</v>
       </c>
-      <c r="F15" s="5">
+      <c r="B15" s="5">
         <v>12.910435546875</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.82237862746476198</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="7">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>44176.548611111109</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.81918796317009701</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>44177.361111111109</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
         <v>0.81481643115125701</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="1">
-        <v>27</v>
-      </c>
-      <c r="E18" s="7">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>44178.375</v>
       </c>
-      <c r="F18" s="5">
+      <c r="B18" s="5">
         <v>27.554494140625</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
         <v>0.80911021674253103</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="1">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>44260.6875</v>
       </c>
-      <c r="F19" s="5">
+      <c r="B19" s="5">
         <v>34.968058593750001</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
         <v>0.58136318790546504</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="1">
-        <v>27</v>
-      </c>
-      <c r="E20" s="7">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>44306.013888888891</v>
       </c>
-      <c r="F20" s="5">
+      <c r="B20" s="5">
         <v>28.157859375000001</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
         <v>0.85432578013248694</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="7">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>44323.798611111109</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
         <v>0.91766664866425895</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="1">
-        <v>19</v>
-      </c>
-      <c r="E22" s="7">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>44325.583333333336</v>
       </c>
-      <c r="F22" s="5">
+      <c r="B22" s="5">
         <v>18.258113281250001</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
         <v>0.92222131533739604</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
-        <v>17</v>
-      </c>
-      <c r="E23" s="7">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>44337.961805555555</v>
       </c>
-      <c r="F23" s="5">
+      <c r="B23" s="5">
         <v>15.0241943359375</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
         <v>0.94509390554399397</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>44338.0625</v>
       </c>
-      <c r="F24" s="5">
+      <c r="B24" s="5">
         <v>8.9903596038818403</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
         <v>0.945194153558365</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="1">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>44338.125</v>
       </c>
-      <c r="F25" s="5">
+      <c r="B25" s="5">
         <v>9.0068606305803591</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
         <v>0.94526880258792401</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>44338.159722222219</v>
       </c>
-      <c r="F26" s="5">
+      <c r="B26" s="5">
         <v>9.2317257288490904</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
         <v>0.945293685598112</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="1">
-        <v>15</v>
-      </c>
-      <c r="E27" s="7">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>44338.288194444445</v>
       </c>
-      <c r="F27" s="5">
+      <c r="B27" s="5">
         <v>9.1290566406250004</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
         <v>0.94544164117027796</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>44338.597222222219</v>
       </c>
-      <c r="F28" s="5">
+      <c r="B28" s="5">
         <v>33.48552734375</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
         <v>0.94582831306227799</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="1">
-        <v>26</v>
-      </c>
-      <c r="E29" s="7">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>44338.638888888891</v>
       </c>
-      <c r="F29" s="5">
+      <c r="B29" s="5">
         <v>33.48552734375</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
         <v>0.94587584148340498</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>44338.902777777781</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
         <v>0.94615725250788396</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="E31" s="7">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>44339.194444444445</v>
       </c>
-      <c r="F31" s="5">
+      <c r="B31" s="5">
         <v>16.384</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
         <v>0.94647741939464003</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="1">
-        <v>16</v>
-      </c>
-      <c r="E32" s="7">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>44339.395833333336</v>
       </c>
-      <c r="F32" s="5">
+      <c r="B32" s="5">
         <v>12.910435546875</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
         <v>0.94670073873600802</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="1">
-        <v>16</v>
-      </c>
-      <c r="E33" s="7">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>44339.465277777781</v>
       </c>
-      <c r="F33" s="5">
+      <c r="B33" s="5">
         <v>13.193136718750001</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
         <v>0.94678881311472496</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="1">
-        <v>35</v>
-      </c>
-      <c r="E34" s="7">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>44344.989583333336</v>
       </c>
-      <c r="F34" s="5">
+      <c r="B34" s="5">
         <v>20.346597656250001</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
         <v>0.951017618591943</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="7">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>44359.809027777781</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
         <v>0.94685143817844197</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>44397.690972222219</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
         <v>0.83405617745476102</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="7">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>44399.375</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
         <v>0.82572852011499698</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>44400.430555555555</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
         <v>0.82035071905135604</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="1">
-        <v>28</v>
-      </c>
-      <c r="E39" s="7">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>44401.008333333331</v>
       </c>
-      <c r="F39" s="5">
+      <c r="B39" s="5">
         <v>27.554494140625</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
         <v>0.817354474334265</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="7">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>44425.458333333336</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
         <v>0.67206296299403301</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="1">
-        <v>37</v>
-      </c>
-      <c r="E41" s="7">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>44432.559027777781</v>
       </c>
-      <c r="F41" s="5">
+      <c r="B41" s="5">
         <v>38.132937499999997</v>
       </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
         <v>0.63445796970743595</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="1">
-        <v>52</v>
-      </c>
-      <c r="E42" s="7">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>44434.163194444445</v>
       </c>
-      <c r="F42" s="5">
+      <c r="B42" s="5">
         <v>49.452300781250003</v>
       </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
         <v>0.62719102228455204</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="1">
-        <v>45</v>
-      </c>
-      <c r="E43" s="7">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>44434.770833333336</v>
       </c>
-      <c r="F43" s="5">
+      <c r="B43" s="5">
         <v>45.347960937499998</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
         <v>0.62445445423462098</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="7">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>44461.763888888891</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
         <v>0.60254682346522603</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="7">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>44462.652777777781</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="B45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
         <v>0.60523140962761601</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="1">
-        <v>47</v>
-      </c>
-      <c r="E46" s="7">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>44463.6875</v>
       </c>
-      <c r="F46" s="5">
+      <c r="B46" s="5">
         <v>46.340949218749998</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
         <v>0.60867185467310703</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="1">
-        <v>20</v>
-      </c>
-      <c r="E47" s="7">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>44465.489583333336</v>
       </c>
-      <c r="F47" s="5">
+      <c r="B47" s="5">
         <v>18.262395507812499</v>
       </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
         <v>0.61518481106451495</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="7">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>44465.958333333336</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="B48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
         <v>0.61704916559168499</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="7">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>44466.493055555555</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="B49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
         <v>0.61913174147939598</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="1">
-        <v>54</v>
-      </c>
-      <c r="E50" s="7">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>44467.090277777781</v>
       </c>
-      <c r="F50" s="5">
+      <c r="B50" s="5">
         <v>56.315718750000002</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
         <v>0.62170676937015701</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="7">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>44467.302083333336</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="B51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
         <v>0.62258311719695703</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="7">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>44467.597222222219</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
         <v>0.623824873722715</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="1">
-        <v>39</v>
-      </c>
-      <c r="E53" s="7">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>44475.166666666664</v>
       </c>
-      <c r="F53" s="5">
+      <c r="B53" s="5">
         <v>38.967937499999998</v>
       </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
         <v>0.66132468738733696</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="1">
-        <v>28</v>
-      </c>
-      <c r="E54" s="7">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>44478.283333333333</v>
       </c>
-      <c r="F54" s="5">
+      <c r="B54" s="5">
         <v>26.386273437500002</v>
       </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
         <v>0.67911045062210595</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="1">
-        <v>40</v>
-      </c>
-      <c r="E55" s="7">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>44497.652777777781</v>
       </c>
-      <c r="F55" s="5">
+      <c r="B55" s="5">
         <v>34.968058593750001</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
         <v>0.80448878084923303</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="1">
-        <v>20</v>
-      </c>
-      <c r="E56" s="7">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>44501.0625</v>
       </c>
-      <c r="F56" s="5">
+      <c r="B56" s="5">
         <v>25.267582031250001</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
         <v>0.82722362337836797</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="1">
-        <v>27</v>
-      </c>
-      <c r="E57" s="7">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>44501.902777777781</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="B57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
         <v>0.83273824357065396</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="1">
-        <v>31</v>
-      </c>
-      <c r="E58" s="7">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>44509.722222222219</v>
       </c>
-      <c r="F58" s="5">
+      <c r="B58" s="5">
         <v>30.735181640625001</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
         <v>0.88361430536388097</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="1">
-        <v>18</v>
-      </c>
-      <c r="E59" s="7">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>44534.329861111109</v>
       </c>
-      <c r="F59" s="5">
+      <c r="B59" s="5">
         <v>13.7772470703125</v>
       </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
         <v>1.0039696816214101</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="1">
-        <v>16</v>
-      </c>
-      <c r="E60" s="7">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>44534.5625</v>
       </c>
-      <c r="F60" s="5">
+      <c r="B60" s="5">
         <v>15.353181640624999</v>
       </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
         <v>1.0044207580007101</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="1">
-        <v>18</v>
-      </c>
-      <c r="E61" s="7">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>44536.239583333336</v>
       </c>
-      <c r="F61" s="5">
+      <c r="B61" s="5">
         <v>17.109380859375001</v>
       </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
         <v>1.00718764251043</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="7">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>44559.993055555555</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="B62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
         <v>1.00156857837741</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="E63" s="7">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>44561.423611111109</v>
       </c>
-      <c r="F63" s="5">
+      <c r="B63" s="5">
         <v>25.82087109375</v>
       </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
         <v>0.99847512094867497</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="7">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>44561.534722222219</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="B64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
         <v>0.99828864323979505</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D65" s="1">
-        <v>10</v>
-      </c>
-      <c r="E65" s="7">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>44561.635416666664</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="B65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
         <v>0.99800695621539304</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="7">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
         <v>44573.302083333336</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="B66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
         <v>0.961185271486384</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="1">
-        <v>37.6666666666667</v>
-      </c>
-      <c r="E67" s="7">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
         <v>44575.569444444445</v>
       </c>
-      <c r="F67" s="5">
+      <c r="B67" s="5">
         <v>35.352325405943603</v>
       </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-      <c r="H67" s="3">
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
         <v>0.95165210391129396</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D68" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="E68" s="7">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
         <v>44577.829861111109</v>
       </c>
-      <c r="F68" s="5">
+      <c r="B68" s="5">
         <v>20.346597656250001</v>
       </c>
-      <c r="G68" s="1">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
         <v>0.941315714598153</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="1">
-        <v>17</v>
-      </c>
-      <c r="E69" s="7">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>44579.746527777781</v>
       </c>
-      <c r="F69" s="5">
+      <c r="B69" s="5">
         <v>14.702256835937501</v>
       </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3">
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
         <v>0.93187098852552397</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="7">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
         <v>44599.284722222219</v>
       </c>
-      <c r="F70" s="5">
+      <c r="B70" s="5">
         <v>28.774435546875001</v>
       </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
         <v>0.80059002052227501</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="1">
-        <v>42</v>
-      </c>
-      <c r="E71" s="7">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
         <v>44599.805555555555</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
+      <c r="B71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
         <v>0.79600696980425101</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="7">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>44600.693055555559</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="B72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
         <v>0.788492116659116</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="1">
-        <v>46</v>
-      </c>
-      <c r="E73" s="7">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
         <v>44600.90625</v>
       </c>
-      <c r="F73" s="5">
+      <c r="B73" s="5">
         <v>45.347999999999999</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3">
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
         <v>0.78668252557056095</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="1">
-        <v>35</v>
-      </c>
-      <c r="E74" s="7">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
         <v>44625.996527777781</v>
       </c>
-      <c r="F74" s="5">
+      <c r="B74" s="5">
         <v>32.768000000000001</v>
       </c>
-      <c r="G74" s="1">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
         <v>0.51334269553729595</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="1">
-        <v>36</v>
-      </c>
-      <c r="E75" s="7">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
         <v>44626.349305555559</v>
       </c>
-      <c r="F75" s="5">
+      <c r="B75" s="5">
         <v>35.733757812500002</v>
       </c>
-      <c r="G75" s="1">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
         <v>0.50858605624679698</v>
       </c>
     </row>
